--- a/excel/SampleData1.xlsx
+++ b/excel/SampleData1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_A81C93C7D947CBF6720C97229C0D8687535A2A3B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{437A3C9F-49CF-469C-8A70-C755CDA70CC1}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_A81C93C7D947CBF6720C97229C0D8687535A2A3B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{202B55EE-A3D1-4BD6-A391-7D4431D4C0D6}"/>
   <bookViews>
     <workbookView xWindow="30795" yWindow="375" windowWidth="19425" windowHeight="11145" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>Online Instruction Page</t>
   </si>
@@ -108,12 +108,6 @@
   </si>
   <si>
     <t>Jardine</t>
-  </si>
-  <si>
-    <t>Gill</t>
-  </si>
-  <si>
-    <t>Pen</t>
   </si>
   <si>
     <t>West</t>
@@ -879,7 +873,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -983,25 +977,25 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11">
-        <v>44253</v>
+        <v>44236</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="13">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F5" s="14">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="G5" s="15">
-        <v>539.7299999999999</v>
+        <v>179.64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1009,10 +1003,10 @@
         <v>44270</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>21</v>
@@ -1056,7 +1050,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>21</v>
@@ -1099,10 +1093,10 @@
         <v>44338</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>21</v>
@@ -1144,7 +1138,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
@@ -1165,7 +1159,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>24</v>
@@ -1188,7 +1182,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>24</v>
@@ -1257,39 +1251,39 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" customHeight="1">
       <c r="B2" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1297,15 +1291,15 @@
     </row>
     <row r="8" spans="2:3" ht="18.75" customHeight="1">
       <c r="B8" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
